--- a/StackedGraphWorstNew.xlsx
+++ b/StackedGraphWorstNew.xlsx
@@ -412,28 +412,28 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>131</v>
+        <v>559</v>
       </c>
       <c r="C2">
-        <v>223</v>
+        <v>511</v>
       </c>
       <c r="D2">
-        <v>291</v>
+        <v>424</v>
       </c>
       <c r="E2">
-        <v>337</v>
+        <v>391</v>
       </c>
       <c r="F2">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="G2">
-        <v>351</v>
+        <v>280</v>
       </c>
       <c r="H2">
-        <v>317</v>
+        <v>206</v>
       </c>
       <c r="I2">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -444,31 +444,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="E3">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F3">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G3">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H3">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="I3">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="J3">
-        <v>170</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -476,28 +476,28 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="C4">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="D4">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="E4">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F4">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="G4">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="H4">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="I4">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -508,28 +508,28 @@
         <v>4</v>
       </c>
       <c r="B5">
+        <v>74</v>
+      </c>
+      <c r="C5">
+        <v>51</v>
+      </c>
+      <c r="D5">
+        <v>38</v>
+      </c>
+      <c r="E5">
+        <v>32</v>
+      </c>
+      <c r="F5">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>21</v>
+      </c>
+      <c r="H5">
+        <v>17</v>
+      </c>
+      <c r="I5">
         <v>11</v>
-      </c>
-      <c r="C5">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>23</v>
-      </c>
-      <c r="F5">
-        <v>24</v>
-      </c>
-      <c r="G5">
-        <v>24</v>
-      </c>
-      <c r="H5">
-        <v>25</v>
-      </c>
-      <c r="I5">
-        <v>18</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -540,31 +540,31 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="D6">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="E6">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="F6">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G6">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H6">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I6">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="J6">
-        <v>157</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -572,31 +572,31 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C7">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="D7">
-        <v>159</v>
+        <v>259</v>
       </c>
       <c r="E7">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="F7">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="G7">
-        <v>609</v>
+        <v>461</v>
       </c>
       <c r="H7">
-        <v>830</v>
+        <v>542</v>
       </c>
       <c r="I7">
-        <v>1183</v>
+        <v>674</v>
       </c>
       <c r="J7">
-        <v>1577</v>
+        <v>790</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -604,16 +604,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
